--- a/Documentation/Appendix B - Black Box Testing.xlsx
+++ b/Documentation/Appendix B - Black Box Testing.xlsx
@@ -324,9 +324,6 @@
   </si>
   <si>
     <t>Honours Project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This spreadsheet contains the results of black box testing of the Graphical Engima simulator. Every rotor and reflector settings combination was tested for each mode, Encrypt and Decrpyt. </t>
   </si>
   <si>
     <r>
@@ -359,6 +356,9 @@
       </rPr>
       <t>Fail</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">This spreadsheet contains the results of black box testing of the Graphical Engima simulator. Every rotor and reflector settings combination was tested for each mode, Encrypt and Decrypt. </t>
   </si>
 </sst>
 </file>
@@ -806,7 +806,7 @@
   <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,7 +842,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -881,7 +881,7 @@
         <v>12</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
